--- a/接口命名.xlsx
+++ b/接口命名.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WiseMaterialismer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WiseMaterialismer\Desktop\3th-th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D9BDD9-24EC-4D1F-967D-DF8FAF77EC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5E88F9-1096-4A3F-AE9A-1F167F7B7D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1200" windowWidth="21600" windowHeight="10965" activeTab="1" xr2:uid="{4D1561F9-5C24-4FE7-8023-FC145D608B2C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>返回到登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,20 +308,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>11502</xdr:rowOff>
+      <xdr:rowOff>21026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>229343</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67232</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9735B3B-298F-4D81-837F-7621162F49BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88B8010-676A-412F-8B68-5580426D8828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -333,8 +337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1459302"/>
-          <a:ext cx="4420343" cy="3313280"/>
+          <a:off x="0" y="1468826"/>
+          <a:ext cx="4324350" cy="3210149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA54AF78-506E-4789-8000-91474457B366}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,7 +892,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/接口命名.xlsx
+++ b/接口命名.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WiseMaterialismer\Desktop\3th-th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5E88F9-1096-4A3F-AE9A-1F167F7B7D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC287B-AA75-4741-956E-52227D4DB400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1200" windowWidth="21600" windowHeight="10965" activeTab="1" xr2:uid="{4D1561F9-5C24-4FE7-8023-FC145D608B2C}"/>
+    <workbookView xWindow="9825" yWindow="2580" windowWidth="16215" windowHeight="10785" activeTab="2" xr2:uid="{4D1561F9-5C24-4FE7-8023-FC145D608B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="登录Login" sheetId="1" r:id="rId1"/>
     <sheet name="数据库连接DBConn" sheetId="2" r:id="rId2"/>
+    <sheet name="忘记密码FGPwd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,21 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LoginBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FgPwdBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忘记密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ToDBConBtn</t>
-  </si>
-  <si>
     <t>跳转到数据库连接界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,18 +160,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DBConnBtn</t>
-  </si>
-  <si>
-    <t>DBBackBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回到登陆界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnDBConn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnDBBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnToDBCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnFgPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextFGUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextFGName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextFGPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextFGCaptcha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhotoFGCaptcha</t>
+  </si>
+  <si>
+    <t>验证码显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PictureBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnFGVerify</t>
+  </si>
+  <si>
+    <t>验证按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnFGBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnFGAlter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段提示显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelFGPassword</t>
+  </si>
+  <si>
+    <t>新密码输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextFGPwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,6 +439,55 @@
         <a:xfrm>
           <a:off x="0" y="1468826"/>
           <a:ext cx="4324350" cy="3210149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1599526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA85272-E25B-4C7A-999B-F5D38DDFD6BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="1847850"/>
+          <a:ext cx="5390476" cy="3295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,7 +799,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -691,10 +840,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -742,15 +891,15 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -759,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -777,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA54AF78-506E-4789-8000-91474457B366}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,12 +954,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -819,12 +968,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -833,12 +982,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -847,12 +996,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -861,12 +1010,12 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -875,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,15 +1038,15 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -906,10 +1055,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -917,4 +1066,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FEE7BA-5088-41C6-9BEF-6DCCCE24C841}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>